--- a/Weight/Weights.xlsx
+++ b/Weight/Weights.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\knech\Documents\ASE6002\ModelProject\Weight\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\knech\OneDrive\Documents\ASE6002\ModelProject\Weight\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F7B2BF6-5716-4614-B35E-9DA45FD5B805}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7972E678-CCE1-4AAC-968E-641CDB14E540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7440" yWindow="3645" windowWidth="25185" windowHeight="16755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1463,13 +1463,13 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1483,7 +1483,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1495,7 +1495,7 @@
         <v>5.8582091476245495</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1503,7 +1503,7 @@
         <v>2.54</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1511,12 +1511,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1537,14 +1537,14 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1556,7 +1556,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1568,7 +1568,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1579,7 +1579,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1590,7 +1590,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -1601,7 +1601,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1613,7 +1613,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -1634,7 +1634,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -1645,7 +1645,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -1667,7 +1667,7 @@
         <v>3.8181818181818179</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="F11">
         <v>16</v>
       </c>
@@ -1679,7 +1679,7 @@
         <v>4.1363636363636358</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="F12">
         <v>18</v>
       </c>
@@ -1691,7 +1691,7 @@
         <v>4.5909090909090899</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="F13">
         <v>20</v>
       </c>
@@ -1703,7 +1703,7 @@
         <v>5.3636363636363633</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -1722,12 +1722,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1875,15 +1872,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{294449CD-1ABF-449B-B61F-7599D5328533}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50A69CD1-075E-4754-ABEE-D58AF516EA5A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1907,10 +1908,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50A69CD1-075E-4754-ABEE-D58AF516EA5A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{294449CD-1ABF-449B-B61F-7599D5328533}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Weight/Weights.xlsx
+++ b/Weight/Weights.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\knech\Documents\ASE6002\ModelProject\Weight\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/eba1ba43692f98ec/Documents/ASE6002/ModelProject/Weight/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F7B2BF6-5716-4614-B35E-9DA45FD5B805}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="22770" documentId="13_ncr:1_{7972E678-CCE1-4AAC-968E-641CDB14E540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C3660F1D-1C59-4E82-86FA-4CDED7A5B3E2}"/>
   <bookViews>
-    <workbookView xWindow="7440" yWindow="3645" windowWidth="25185" windowHeight="16755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1463,13 +1463,13 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1483,40 +1483,46 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>4</v>
       </c>
+      <c r="B2">
+        <v>1.358412</v>
+      </c>
       <c r="E2" t="s">
         <v>5</v>
       </c>
       <c r="F2">
         <f>B2+B5+B6+'Body Weight Calc'!B10+'Body Weight Calc'!B19</f>
-        <v>5.8582091476245495</v>
+        <v>12.033628838273961</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3">
-        <v>2.54</v>
+        <v>0.18279999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4">
-        <v>50</v>
+        <v>0.43359999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>8</v>
       </c>
+      <c r="B5">
+        <v>2.0676331999999999</v>
+      </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1537,38 +1543,38 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2">
         <f>Sheet1!B3</f>
-        <v>2.54</v>
+        <v>0.18279999999999999</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3">
         <f>B2/2.54</f>
-        <v>1</v>
+        <v>7.1968503937007863E-2</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1579,7 +1585,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1590,7 +1596,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -1601,7 +1607,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1613,13 +1619,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>17</v>
       </c>
       <c r="B8">
         <f>B7*B2</f>
-        <v>9.042400000000006</v>
+        <v>0.65076800000000035</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
@@ -1634,7 +1640,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -1645,13 +1651,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>24</v>
       </c>
       <c r="B10">
         <f>B9*B8/2.2</f>
-        <v>0.13892414545454551</v>
+        <v>9.9981629090909116E-3</v>
       </c>
       <c r="C10" t="s">
         <v>25</v>
@@ -1667,7 +1673,7 @@
         <v>3.8181818181818179</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="F11">
         <v>16</v>
       </c>
@@ -1679,7 +1685,7 @@
         <v>4.1363636363636358</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="F12">
         <v>18</v>
       </c>
@@ -1691,7 +1697,7 @@
         <v>4.5909090909090899</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="F13">
         <v>20</v>
       </c>
@@ -1703,13 +1709,13 @@
         <v>5.3636363636363633</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>26</v>
       </c>
       <c r="B19">
         <f>(0.0284*((Sheet1!B4/2.54)^2))-(0.7114*(Sheet1!B4/2.54))+8.2182</f>
-        <v>5.2192850021700039</v>
+        <v>8.0975854753648697</v>
       </c>
       <c r="C19" t="s">
         <v>25</v>
@@ -1722,12 +1728,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1875,15 +1878,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{294449CD-1ABF-449B-B61F-7599D5328533}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50A69CD1-075E-4754-ABEE-D58AF516EA5A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1907,10 +1914,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50A69CD1-075E-4754-ABEE-D58AF516EA5A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{294449CD-1ABF-449B-B61F-7599D5328533}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Weight/Weights.xlsx
+++ b/Weight/Weights.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/eba1ba43692f98ec/Documents/ASE6002/ModelProject/Weight/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dspin\iCloudDrive\GT PMASE\ASE6002\TA-4\ASE6002_Model-main_112624\ASE6002_Model-main\Weight\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22770" documentId="13_ncr:1_{7972E678-CCE1-4AAC-968E-641CDB14E540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C3660F1D-1C59-4E82-86FA-4CDED7A5B3E2}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{390A6B60-6BF1-4518-AC15-9D91F07CAA66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1460,16 +1460,16 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.73046875" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1483,46 +1483,46 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2">
-        <v>1.358412</v>
+        <v>1.93202989160145</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
       </c>
       <c r="F2">
-        <f>B2+B5+B6+'Body Weight Calc'!B10+'Body Weight Calc'!B19</f>
-        <v>12.033628838273961</v>
+        <f>B2+B6+'Body Weight Calc'!B10+'Body Weight Calc'!B19</f>
+        <v>6.2249659749601332</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3">
-        <v>0.18279999999999999</v>
+        <v>0.14435046350608899</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4">
-        <v>0.43359999999999999</v>
+        <v>0.34041012843833202</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5">
-        <v>2.0676331999999999</v>
+        <v>2.0788034369158401</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1540,41 +1540,41 @@
   <dimension ref="A2:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.1328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2">
         <f>Sheet1!B3</f>
-        <v>0.18279999999999999</v>
+        <v>0.14435046350608899</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3">
         <f>B2/2.54</f>
-        <v>7.1968503937007863E-2</v>
+        <v>5.6830891144129522E-2</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1585,7 +1585,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1596,7 +1596,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -1607,7 +1607,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1619,13 +1619,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>17</v>
       </c>
       <c r="B8">
         <f>B7*B2</f>
-        <v>0.65076800000000035</v>
+        <v>0.51388765008167714</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
@@ -1640,7 +1640,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -1651,13 +1651,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>24</v>
       </c>
       <c r="B10">
         <f>B9*B8/2.2</f>
-        <v>9.9981629090909116E-3</v>
+        <v>7.8951829876184928E-3</v>
       </c>
       <c r="C10" t="s">
         <v>25</v>
@@ -1673,7 +1673,7 @@
         <v>3.8181818181818179</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F11">
         <v>16</v>
       </c>
@@ -1685,7 +1685,7 @@
         <v>4.1363636363636358</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F12">
         <v>18</v>
       </c>
@@ -1697,7 +1697,7 @@
         <v>4.5909090909090899</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F13">
         <v>20</v>
       </c>
@@ -1709,13 +1709,13 @@
         <v>5.3636363636363633</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>26</v>
       </c>
       <c r="B19">
-        <f>(0.0284*((Sheet1!B4/2.54)^2))-(0.7114*(Sheet1!B4/2.54))+8.2182</f>
-        <v>8.0975854753648697</v>
+        <f>(0.0284*((Sheet1!B4*39.37)^2))-(0.7114*(Sheet1!B4*39.37))+8.2182</f>
+        <v>3.7850409003710643</v>
       </c>
       <c r="C19" t="s">
         <v>25</v>
